--- a/PCB/SCHEMATICS/BOM.xlsx
+++ b/PCB/SCHEMATICS/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,48 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3520\Desktop\EEE3088-group-09\PCB\SCHEMATICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8372999-9262-4D50-8E18-6C9D80DCF6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E0B01B7-B177-4DDD-B7A2-CA63BB6AB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEMATICS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Value</t>
+    <t xml:space="preserve">Value </t>
   </si>
   <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>Datasheet</t>
+    <t>Datesheet</t>
   </si>
   <si>
     <t>Extended</t>
   </si>
   <si>
+    <t>Part</t>
+  </si>
+  <si>
     <t>Sim.Device</t>
   </si>
   <si>
@@ -59,227 +49,269 @@
     <t>Sim.Type</t>
   </si>
   <si>
+    <t>Unit price</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Unit Price</t>
+    <t>C1, C4, C5</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>D1, D4, D5</t>
+  </si>
+  <si>
+    <t>D_Schottky</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>1N4001</t>
+  </si>
+  <si>
+    <t>Diode_THT:D_DO-41_SOD81_P10,16mm_Horizontal</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88503/1n4001.pdf</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D_Zener</t>
+  </si>
+  <si>
+    <t>D6-D8</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>MicroXNJ?</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>PMOS</t>
+  </si>
+  <si>
+    <t>https://ngspice.sourceforge.io/docs/ngspice-manual.pdf</t>
+  </si>
+  <si>
+    <t>C20917</t>
+  </si>
+  <si>
+    <t>1=D 2=G 3=S</t>
+  </si>
+  <si>
+    <t>VDMOS</t>
+  </si>
+  <si>
+    <t>R1, R4, R5, R7, R14-R17, R24, R26, R28-R39</t>
+  </si>
+  <si>
+    <t>1.5k</t>
+  </si>
+  <si>
+    <t>R6, R25, R27</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>R8, R10</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>C23156</t>
+  </si>
+  <si>
+    <t>2.0M</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>C22807</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>C17927</t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>R18-R21</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R22, R23</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>C11616</t>
+  </si>
+  <si>
+    <t>TP4054-42-SOT25R?</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>C7433</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:TSOT-23-5</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/AD8603_8607_8609.pdf</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>http://www.advanced-monolithic.com/pdf/ds1117.pdf</t>
+  </si>
+  <si>
+    <t>U3, U5</t>
+  </si>
+  <si>
+    <t>LTR-303ALS-01</t>
+  </si>
+  <si>
+    <t>OptoDevice:Lite-On_LTR-303ALS-01</t>
+  </si>
+  <si>
+    <t>http://optoelectronics.liteon.com/upload/download/DS86-2013-0004/LTR-303ALS-01_DS_V1.pdf</t>
+  </si>
+  <si>
+    <t>C364577</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>C2987267</t>
+  </si>
+  <si>
+    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21710J.pdf</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C19702</t>
+  </si>
+  <si>
+    <t>C191023</t>
   </si>
   <si>
     <t>C1613</t>
   </si>
   <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>~</t>
+    <t>C28323</t>
+  </si>
+  <si>
+    <t>C95872</t>
+  </si>
+  <si>
+    <t>C8056</t>
   </si>
   <si>
     <t>C2286</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>C8062</t>
-  </si>
-  <si>
-    <t>D_Zener</t>
+    <t>C404969</t>
+  </si>
+  <si>
+    <t>C4177</t>
+  </si>
+  <si>
+    <t>C22808</t>
+  </si>
+  <si>
+    <t>C25867</t>
+  </si>
+  <si>
+    <t>C17520</t>
+  </si>
+  <si>
+    <t>C22976</t>
+  </si>
+  <si>
+    <t>C26108</t>
   </si>
   <si>
     <t>C11702</t>
   </si>
   <si>
-    <t>-- mixed values --</t>
-  </si>
-  <si>
-    <t>C17520</t>
-  </si>
-  <si>
-    <t>2.2k</t>
-  </si>
-  <si>
-    <t>C17902</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>C19702</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C95872</t>
-  </si>
-  <si>
-    <t>1N4001</t>
-  </si>
-  <si>
-    <t>Diode_THT:D_DO-41_SOD81_P10.16mm_Horizontal</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88503/1n4001.pdf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>1=K 2=A</t>
-  </si>
-  <si>
-    <t>C191023</t>
-  </si>
-  <si>
-    <t>D_Schottky</t>
-  </si>
-  <si>
-    <t>C404969</t>
-  </si>
-  <si>
-    <t>C5240615</t>
-  </si>
-  <si>
-    <t>NMOS</t>
-  </si>
-  <si>
-    <t>https://ngspice.sourceforge.io/docs/ngspice-manual.pdf</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>1=D 2=G 3=S</t>
-  </si>
-  <si>
-    <t>VDMOS</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>C2150</t>
-  </si>
-  <si>
-    <t>NPN</t>
-  </si>
-  <si>
-    <t>1=C 2=B 3=E</t>
-  </si>
-  <si>
-    <t>GUMMELPOON</t>
-  </si>
-  <si>
-    <t>47k</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>AMS1117-5.0</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>http://www.advanced-monolithic.com/pdf/ds1117.pdf</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>LTR-303ALS-01</t>
-  </si>
-  <si>
-    <t>OptoDevice:Lite-On_LTR-303ALS-01</t>
-  </si>
-  <si>
-    <t>http://optoelectronics.liteon.com/upload/download/DS86-2013-0004/LTR-303ALS-01_DS_V1.pdf</t>
-  </si>
-  <si>
-    <t>U4, U7</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>C2987267</t>
-  </si>
-  <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21710J.pdf</t>
-  </si>
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>1=+ 2=-</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
-    <t>C25819</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>Total Qty</t>
-  </si>
-  <si>
-    <t>Power Module</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>Transistor</t>
-  </si>
-  <si>
-    <t>Sensing Module</t>
-  </si>
-  <si>
-    <t>C364577</t>
-  </si>
-  <si>
-    <t>C351787</t>
-  </si>
-  <si>
-    <t>C5199435</t>
-  </si>
-  <si>
-    <t>Microcontroller Module</t>
-  </si>
-  <si>
-    <t>Micro usb port</t>
-  </si>
-  <si>
-    <t>Eprom</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
+    <t>C17900</t>
+  </si>
+  <si>
+    <t>C32574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U2</t>
+  </si>
+  <si>
+    <t>510k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,15 +442,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -765,10 +788,18 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1123,945 +1154,707 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
       </c>
       <c r="J2">
         <v>5.7999999999999996E-3</v>
       </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1.7399999999999999E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="F3" t="s">
+        <v>75</v>
       </c>
       <c r="J3">
-        <v>5.4000000000000003E-3</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1.32E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>77</v>
       </c>
       <c r="J4">
-        <v>1.21E-2</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
+      <c r="L4">
+        <v>5.7999999999999996E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
       </c>
       <c r="J5">
-        <v>5.0000000000000001E-4</v>
+        <v>1.67E-2</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>5.0099999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
       </c>
       <c r="J6">
-        <v>1.6999999999999999E-3</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>6.8999999999999999E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
       </c>
       <c r="J7">
-        <v>3.0000000000000001E-3</v>
+        <v>1.11E-2</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
+      <c r="L7">
+        <v>1.11E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
       </c>
       <c r="J8">
-        <v>6.6E-3</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
       </c>
       <c r="J9">
-        <v>8.6999999999999994E-3</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>3.3300000000000003E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>6.8999999999999999E-3</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>8.6400000000000005E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
       </c>
       <c r="J11">
-        <v>1.67E-2</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>2.64E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>35</v>
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
       </c>
       <c r="J12">
-        <v>3.3300000000000003E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J13">
-        <v>1.8499999999999999E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
+      <c r="L13">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="J14">
-        <v>1.47E-2</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
       </c>
       <c r="J15">
-        <v>1E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2.5999999999999999E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
       </c>
       <c r="J16">
-        <v>7.3099999999999998E-2</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
+      <c r="L16">
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
+      <c r="A17" s="2">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
       </c>
       <c r="J17">
-        <v>6.2700000000000006E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
+      <c r="L17">
+        <v>1E-3</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
+      <c r="A18" s="2">
+        <v>12</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
       </c>
       <c r="J18">
-        <v>0.38869999999999999</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
+      <c r="L18">
+        <v>3.0999999999999999E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>58</v>
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
       </c>
       <c r="J20">
-        <v>9.1999999999999998E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
+      <c r="L22">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.14330000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="J24">
-        <v>6.8999999999999999E-3</v>
+        <v>0.28039999999999998</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <f>J24*K24</f>
-        <v>1.38E-2</v>
+        <v>0.28039999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>16</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
       </c>
       <c r="J25">
-        <v>1.21E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L34" si="0">J25*K25</f>
-        <v>1.21E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
+        <v>66</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
       </c>
       <c r="J26">
-        <v>6.6E-3</v>
+        <v>0.38869999999999999</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
-        <v>1.9799999999999998E-2</v>
+        <v>0.77739999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
       </c>
       <c r="J27">
-        <v>1E-3</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28">
-        <v>7.3099999999999998E-2</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>7.3099999999999998E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>6.2700000000000006E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>1.8499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32">
-        <v>1.47E-2</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>1.47E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33">
-        <v>1.67E-2</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>1.67E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>1.6999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L35" s="2">
-        <f>SUM(L24:L34)</f>
-        <v>0.23459999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <f>J39*K39</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <f t="shared" ref="L40:L43" si="1">J40*K40</f>
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41">
-        <v>0.38869999999999999</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
-        <v>0.38869999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" s="2">
-        <f>SUM(L39:L43)</f>
-        <v>0.4073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
-      </c>
-      <c r="J46">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <f>J46*K46</f>
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <f t="shared" ref="L47:L49" si="2">J47*K47</f>
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="2"/>
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K49">
-        <v>3</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="2"/>
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L50" s="2">
-        <f>SUM(L46:L49)</f>
-        <v>0.14729999999999999</v>
+      <c r="J28" s="1">
+        <v>1.1629</v>
+      </c>
+      <c r="K28" s="1">
+        <v>62</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1.6484000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCB/SCHEMATICS/BOM.xlsx
+++ b/PCB/SCHEMATICS/BOM.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3520\Desktop\EEE3088-group-09\PCB\SCHEMATICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1E0B01B7-B177-4DDD-B7A2-CA63BB6AB3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E2006-1BA2-4FF9-B2C2-4FB1570E1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCHEMATICS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>Reference</t>
   </si>
@@ -28,27 +41,12 @@
     <t xml:space="preserve">Value </t>
   </si>
   <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Datesheet</t>
-  </si>
-  <si>
     <t>Extended</t>
   </si>
   <si>
     <t>Part</t>
   </si>
   <si>
-    <t>Sim.Device</t>
-  </si>
-  <si>
-    <t>Sim.Pins</t>
-  </si>
-  <si>
-    <t>Sim.Type</t>
-  </si>
-  <si>
     <t>Unit price</t>
   </si>
   <si>
@@ -64,9 +62,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>C2, C3</t>
   </si>
   <si>
@@ -91,18 +86,6 @@
     <t>1N4001</t>
   </si>
   <si>
-    <t>Diode_THT:D_DO-41_SOD81_P10,16mm_Horizontal</t>
-  </si>
-  <si>
-    <t>http://www.vishay.com/docs/88503/1n4001.pdf</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>1=K 2=A</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -127,18 +110,9 @@
     <t>PMOS</t>
   </si>
   <si>
-    <t>https://ngspice.sourceforge.io/docs/ngspice-manual.pdf</t>
-  </si>
-  <si>
     <t>C20917</t>
   </si>
   <si>
-    <t>1=D 2=G 3=S</t>
-  </si>
-  <si>
-    <t>VDMOS</t>
-  </si>
-  <si>
     <t>R1, R4, R5, R7, R14-R17, R24, R26, R28-R39</t>
   </si>
   <si>
@@ -202,48 +176,18 @@
     <t>C7433</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:TSOT-23-5</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/media/en/technical-documentation/data-sheets/AD8603_8607_8609.pdf</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
     <t>AMS1117-3.3</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
-  </si>
-  <si>
-    <t>http://www.advanced-monolithic.com/pdf/ds1117.pdf</t>
-  </si>
-  <si>
     <t>U3, U5</t>
   </si>
   <si>
     <t>LTR-303ALS-01</t>
   </si>
   <si>
-    <t>OptoDevice:Lite-On_LTR-303ALS-01</t>
-  </si>
-  <si>
-    <t>http://optoelectronics.liteon.com/upload/download/DS86-2013-0004/LTR-303ALS-01_DS_V1.pdf</t>
-  </si>
-  <si>
     <t>C364577</t>
   </si>
   <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>C2987267</t>
-  </si>
-  <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/21710J.pdf</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -298,16 +242,37 @@
     <t>C32574</t>
   </si>
   <si>
-    <t xml:space="preserve"> U2</t>
-  </si>
-  <si>
     <t>510k</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>CP2102-GMR</t>
+  </si>
+  <si>
+    <t>C6568</t>
+  </si>
+  <si>
+    <t>U2, U4</t>
+  </si>
+  <si>
+    <t>C6482</t>
+  </si>
+  <si>
+    <t>U6,U7</t>
+  </si>
+  <si>
+    <t>C369933</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
@@ -788,7 +753,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -798,6 +763,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1154,27 +1122,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,278 +1152,228 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2*F2</f>
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6.6E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G28" si="0">E3*F3</f>
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K2">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3">
-        <v>6.6E-3</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>1.32E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="K4">
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1.11E-2</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="L4">
-        <v>5.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5">
-        <v>1.67E-2</v>
-      </c>
-      <c r="K5">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>5.0099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="E10" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>8.6400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>26</v>
-      </c>
-      <c r="J6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7">
-        <v>1.11E-2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1.11E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8">
-        <v>5.4000000000000003E-3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1.6199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>3.3300000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>8.6400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="K11">
+      <c r="F11" s="4">
         <v>22</v>
       </c>
-      <c r="L11">
-        <v>2.64E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -1466,391 +1381,407 @@
         <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4">
         <v>1E-3</v>
       </c>
-      <c r="K12">
+      <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="E13" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="L13">
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14">
+        <v>63</v>
+      </c>
+      <c r="E14" s="4">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="K14">
+      <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="K15">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="L15">
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="K16">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="L16">
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4">
         <v>1E-3</v>
       </c>
-      <c r="K17">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="L17">
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K18">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="L18">
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K19">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="L19">
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K20">
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="L20">
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K21">
+      <c r="F21" s="4">
         <v>2</v>
       </c>
-      <c r="L21">
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K22">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
-      <c r="L22">
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.14330000000000001</v>
       </c>
-      <c r="K23">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
         <v>0.14330000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J24">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.28039999999999998</v>
       </c>
-      <c r="K24">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="L24">
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
         <v>0.28039999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25">
+        <v>77</v>
+      </c>
+      <c r="E25" s="4">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>6.2700000000000006E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <f>E25*F25</f>
+        <v>0.12540000000000001</v>
+      </c>
+      <c r="I25" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4">
         <v>0.38869999999999999</v>
       </c>
-      <c r="K26">
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="L26">
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="K27">
+      <c r="E27" s="4">
+        <v>2.3774000000000002</v>
+      </c>
+      <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>9.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1.1629</v>
-      </c>
-      <c r="K28" s="1">
-        <v>62</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1.6484000000000001</v>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3774000000000002</v>
+      </c>
+      <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.51719999999999999</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="5">
+        <f>SUM(E2:E28)</f>
+        <v>3.9655</v>
+      </c>
+      <c r="F29" s="5">
+        <f>SUM(F2:F28)</f>
+        <v>65</v>
+      </c>
+      <c r="G29" s="5">
+        <f>SUM(G2:G28)</f>
+        <v>5.0308999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/PCB/SCHEMATICS/BOM.xlsx
+++ b/PCB/SCHEMATICS/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3520\Desktop\EEE3088-group-09\PCB\SCHEMATICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97E2006-1BA2-4FF9-B2C2-4FB1570E1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6FB87E-2201-4047-8FF9-5BD8EFED4A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Reference</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Extended</t>
   </si>
   <si>
-    <t>Part</t>
-  </si>
-  <si>
     <t>Unit price</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>MicroXNJ?</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -110,12 +104,6 @@
     <t>PMOS</t>
   </si>
   <si>
-    <t>C20917</t>
-  </si>
-  <si>
-    <t>R1, R4, R5, R7, R14-R17, R24, R26, R28-R39</t>
-  </si>
-  <si>
     <t>1.5k</t>
   </si>
   <si>
@@ -167,18 +155,12 @@
     <t>C11616</t>
   </si>
   <si>
-    <t>TP4054-42-SOT25R?</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
     <t>C7433</t>
   </si>
   <si>
-    <t>AMS1117-3.3</t>
-  </si>
-  <si>
     <t>U3, U5</t>
   </si>
   <si>
@@ -191,57 +173,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve"> C19702</t>
-  </si>
-  <si>
-    <t>C191023</t>
-  </si>
-  <si>
-    <t>C1613</t>
-  </si>
-  <si>
-    <t>C28323</t>
-  </si>
-  <si>
-    <t>C95872</t>
-  </si>
-  <si>
-    <t>C8056</t>
-  </si>
-  <si>
-    <t>C2286</t>
-  </si>
-  <si>
-    <t>C404969</t>
-  </si>
-  <si>
-    <t>C4177</t>
-  </si>
-  <si>
-    <t>C22808</t>
-  </si>
-  <si>
-    <t>C25867</t>
-  </si>
-  <si>
-    <t>C17520</t>
-  </si>
-  <si>
-    <t>C22976</t>
-  </si>
-  <si>
-    <t>C26108</t>
-  </si>
-  <si>
-    <t>C11702</t>
-  </si>
-  <si>
-    <t>C17900</t>
-  </si>
-  <si>
-    <t>C32574</t>
-  </si>
-  <si>
     <t>510k</t>
   </si>
   <si>
@@ -257,25 +188,121 @@
     <t>C6568</t>
   </si>
   <si>
-    <t>U2, U4</t>
-  </si>
-  <si>
     <t>C6482</t>
   </si>
   <si>
-    <t>U6,U7</t>
-  </si>
-  <si>
     <t>C369933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C28323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C19702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C1613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C191023</t>
+  </si>
+  <si>
+    <t>C64898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   C8056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C2286</t>
+  </si>
+  <si>
+    <t>MicroXNJ1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C404969</t>
+  </si>
+  <si>
+    <t>C2959854</t>
+  </si>
+  <si>
+    <t>R1, R4, R5, R7, R14-R17, R24, R26, R28-R34</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   C17168</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C22808</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C25867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C17520</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C22976</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C26108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C11702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C17900</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>REF1, REF2</t>
+  </si>
+  <si>
+    <t>AMS1117-3_3_C369933</t>
+  </si>
+  <si>
+    <t>TP4054-42-SOT25R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    C32574</t>
+  </si>
+  <si>
+    <t>U6, U7</t>
+  </si>
+  <si>
+    <t>EPROM</t>
+  </si>
+  <si>
+    <t>LCSC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -756,17 +783,17 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1123,20 +1150,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1149,639 +1176,677 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <f>E2*F2</f>
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
         <v>6.6E-3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <f t="shared" ref="G3:G28" si="0">E3*F3</f>
         <v>1.32E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5">
         <v>1.67E-2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>5.0099999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="4">
-        <v>6.8999999999999999E-3</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>6.8999999999999999E-3</v>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7">
         <v>1.11E-2</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>1.11E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3.3300000000000003E-2</v>
-      </c>
-      <c r="F9" s="4">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>2.3774000000000002</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3300000000000003E-2</v>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>2.3774000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="F10" s="4">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10">
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" si="0"/>
-        <v>8.6400000000000005E-2</v>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.3300000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="F11" s="4">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.6399999999999996E-2</v>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4">
-        <v>150</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13">
         <f t="shared" si="0"/>
         <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999995E-3</v>
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E18">
+        <v>1E-3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>9</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0.12920000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="F25">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.14330000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="F26">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>3.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>13</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.28039999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>40</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14330000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.77739999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28">
+        <v>0.49059999999999998</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.28039999999999998</v>
-      </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>0.28039999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="4">
-        <v>6.2700000000000006E-2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <f>E25*F25</f>
-        <v>0.12540000000000001</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>70</v>
-      </c>
-      <c r="L25" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.38869999999999999</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77739999999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="4">
-        <v>2.3774000000000002</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3774000000000002</v>
-      </c>
-      <c r="I27" t="s">
-        <v>70</v>
-      </c>
-      <c r="J27" t="s">
-        <v>70</v>
-      </c>
-      <c r="K27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.51719999999999999</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="5">
-        <f>SUM(E2:E28)</f>
-        <v>3.9655</v>
-      </c>
-      <c r="F29" s="5">
-        <f>SUM(F2:F28)</f>
-        <v>65</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="D29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
         <f>SUM(G2:G28)</f>
-        <v>5.0308999999999999</v>
+        <v>4.9625000000000004</v>
       </c>
     </row>
   </sheetData>
